--- a/data/trans_dic/P62A$jubilacion-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62A$jubilacion-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,42</t>
+          <t>0,0; 73,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,7 +875,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,04</t>
+          <t>0,0; 36,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -904,7 +905,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,84</t>
+          <t>0,0; 28,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,7 +915,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,82</t>
+          <t>0,0; 20,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1005,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,05; 56,72</t>
+          <t>14,49; 55,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,47</t>
+          <t>0,0; 9,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,02</t>
+          <t>0,0; 15,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,7 +1025,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 35,87</t>
+          <t>4,75; 36,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,32 +1035,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 21,88</t>
+          <t>2,89; 23,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,78</t>
+          <t>0,0; 13,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 42,41</t>
+          <t>12,4; 39,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,08</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 13,65</t>
+          <t>1,58; 15,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,37</t>
+          <t>0,0; 6,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,79; 55,34</t>
+          <t>26,05; 54,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 17,64</t>
+          <t>4,09; 17,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,82; 45,74</t>
+          <t>23,61; 45,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 29,4</t>
+          <t>5,88; 28,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 44,94</t>
+          <t>16,44; 43,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 15,8</t>
+          <t>1,83; 15,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 37,18</t>
+          <t>12,7; 38,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 16,41</t>
+          <t>1,93; 15,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,46; 45,44</t>
+          <t>25,64; 45,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 13,83</t>
+          <t>3,95; 13,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,08; 39,25</t>
+          <t>22,25; 39,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 19,45</t>
+          <t>5,78; 20,38</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,69; 88,39</t>
+          <t>76,86; 88,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,85; 72,46</t>
+          <t>56,42; 72,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>70,72; 82,5</t>
+          <t>69,56; 82,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,45; 42,19</t>
+          <t>29,6; 44,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,46; 44,1</t>
+          <t>23,53; 44,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,22; 34,09</t>
+          <t>16,6; 34,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,14; 52,18</t>
+          <t>32,92; 52,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,06; 25,71</t>
+          <t>13,46; 24,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>61,69; 73,0</t>
+          <t>61,31; 72,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>44,13; 56,75</t>
+          <t>44,5; 57,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59,08; 70,77</t>
+          <t>59,01; 70,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,04; 35,19</t>
+          <t>24,83; 35,08</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>97,34; 100,0</t>
+          <t>97,44; 99,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,72; 99,29</t>
+          <t>94,67; 99,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97,75; 100,0</t>
+          <t>97,78; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>57,0; 66,09</t>
+          <t>57,39; 66,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,64; 56,0</t>
+          <t>41,37; 56,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,41; 63,44</t>
+          <t>50,59; 63,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,5; 67,05</t>
+          <t>54,64; 67,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>51,42; 92,28</t>
+          <t>50,77; 91,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>76,18; 83,71</t>
+          <t>76,38; 83,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>76,63; 83,67</t>
+          <t>76,75; 83,94</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>79,72; 86,48</t>
+          <t>79,76; 86,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>56,89; 86,5</t>
+          <t>57,02; 88,39</t>
         </is>
       </c>
     </row>
@@ -1569,57 +1570,57 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>97,88; 100,0</t>
+          <t>97,92; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>97,14; 99,64</t>
+          <t>97,08; 99,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>61,3; 70,4</t>
+          <t>61,05; 70,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,82; 45,41</t>
+          <t>33,03; 45,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,21; 42,54</t>
+          <t>32,0; 42,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,56; 45,02</t>
+          <t>32,18; 45,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,24; 31,24</t>
+          <t>24,24; 31,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>62,2; 71,61</t>
+          <t>62,15; 71,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>61,02; 69,76</t>
+          <t>60,9; 69,57</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>62,07; 71,09</t>
+          <t>62,68; 71,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>41,18; 47,43</t>
+          <t>41,22; 47,61</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>86,66; 91,18</t>
+          <t>86,54; 91,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>73,21; 79,28</t>
+          <t>73,16; 79,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>81,03; 86,07</t>
+          <t>80,8; 86,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>49,19; 55,56</t>
+          <t>49,18; 55,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,11; 43,37</t>
+          <t>35,09; 43,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,34; 39,53</t>
+          <t>31,81; 39,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,17; 47,07</t>
+          <t>39,38; 47,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>30,7; 71,69</t>
+          <t>30,59; 72,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>64,7; 69,99</t>
+          <t>64,44; 69,68</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>54,96; 60,06</t>
+          <t>55,07; 60,04</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>63,1; 67,69</t>
+          <t>63,01; 67,74</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>41,75; 67,16</t>
+          <t>41,78; 65,94</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de jubilación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 715</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1425</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1625</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1535</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 762</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1813</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1666</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1860</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1091</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1836</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1787</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2335</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3827</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5229</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2146</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1841</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1733</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1749</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4488</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5507</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8060</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2616</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11032</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3536</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3634; 13844</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4330</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4617</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1985</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>916; 7000</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2163</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>826; 6698</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3361</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5502; 17729</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4821</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>918; 8877</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3066</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18359</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6460</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26869</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8507</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11686</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11229</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2608</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30046</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9680</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>38097</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11115</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11928; 24918</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3099; 13323</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18612; 35831</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3212; 15328</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6749; 17888</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1000; 8317</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6013; 18350</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>770; 6269</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>22269; 39173</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5156; 17229</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>28074; 49809</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5464; 19265</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>140572</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>112330</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>153980</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>61812</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>26939</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23929</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>47221</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>20246</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>167511</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>136259</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>201201</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>82058</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>129739; 148756</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>97845; 124862</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>139329; 164348</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>50386; 74953</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18810; 35526</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15897; 33472</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36539; 58501</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14294; 26501</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>152496; 181460</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>119791; 153804</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>183698; 218706</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>68628; 96969</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>282889</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>298377</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>321168</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>185644</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>86622</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>129598</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>142846</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>324154</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>369511</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>427975</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>464013</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>509798</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>278375; 284787</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>289372; 303510</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>316096; 323265</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>171894; 197838</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>73117; 99405</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>114122; 142892</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>127889; 158673</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>218969; 394065</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>353173; 385435</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>407711; 445958</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>444538; 480183</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>416696; 645964</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>206378</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>247754</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>247694</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>96913</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>109239</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>114302</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>88341</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>303290</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>356994</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>361996</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>250757</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>204553; 206378</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>243627; 248789</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>243086; 249508</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>150894; 173915</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>81683; 113594</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>94853; 127422</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>94144; 134118</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>77319; 100425</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>281944; 323844</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>332028; 379290</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>340322; 385481</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>233385; 269551</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>657299</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>665857</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>752619</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>418379</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>225132</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>265986</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>318213</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>436084</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>882431</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>931843</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1070832</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>854463</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>638560; 673151</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>637330; 689653</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>728215; 776258</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>394198; 442602</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>202158; 248046</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>237356; 293882</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>290214; 347978</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>286820; 680323</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>846704; 915506</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>890632; 970909</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1032356; 1109783</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>726665; 1146732</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>